--- a/ETRobo/doc/ロボコンスケジュール.xlsx
+++ b/ETRobo/doc/ロボコンスケジュール.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="0" windowWidth="14550" windowHeight="8340" activeTab="2"/>
+    <workbookView xWindow="9300" yWindow="0" windowWidth="14550" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="1" r:id="rId1"/>
-    <sheet name="ペッパー案出" sheetId="2" r:id="rId2"/>
-    <sheet name="ペッパー案まとめ" sheetId="3" r:id="rId3"/>
+    <sheet name="ロボコン" sheetId="4" r:id="rId2"/>
+    <sheet name="ペッパー案出" sheetId="2" r:id="rId3"/>
+    <sheet name="ペッパー案まとめ" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
   <si>
     <t>染宮</t>
     <rPh sb="0" eb="2">
@@ -506,10 +507,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実施説明会→宮内</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>危険物に近寄らない</t>
     <rPh sb="0" eb="2">
       <t>キケン</t>
@@ -736,6 +733,95 @@
   </si>
   <si>
     <t>(所詮子供だましのなので子供に使ってもらう)</t>
+  </si>
+  <si>
+    <t>技術教育</t>
+    <rPh sb="0" eb="2">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョウイク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロボコンフェスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NXTでOKか?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→染宮がメールで確認</t>
+    <rPh sb="1" eb="3">
+      <t>ソメミヤ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施説明会</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完走</t>
+    <rPh sb="0" eb="2">
+      <t>カンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難所クリア×2,3</t>
+    <rPh sb="0" eb="2">
+      <t>ナンショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイム(完走、中間)</t>
+    <rPh sb="4" eb="6">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チュウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順位○位以内</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地区大会優勝</t>
+    <rPh sb="0" eb="2">
+      <t>チク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ユウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1150,9 +1236,7 @@
   </sheetPr>
   <dimension ref="B2:I19"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1265,10 +1349,12 @@
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3">
+        <v>42427</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>4</v>
@@ -1281,7 +1367,9 @@
       <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3">
+        <v>42441</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
         <v>12</v>
@@ -1321,7 +1409,9 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="F11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1351,7 +1441,9 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="F13" s="1" t="s">
         <v>3</v>
       </c>
@@ -1441,10 +1533,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C10"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="5" width="6.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1493,7 +1642,7 @@
         <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -1509,7 +1658,7 @@
         <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -1525,7 +1674,7 @@
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -1533,10 +1682,10 @@
         <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -1554,7 +1703,7 @@
         <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -1573,25 +1722,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -1626,17 +1777,17 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
@@ -1644,7 +1795,7 @@
         <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -1652,7 +1803,7 @@
         <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -1660,7 +1811,7 @@
         <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -1674,7 +1825,7 @@
         <v>50</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -1689,7 +1840,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -1699,7 +1850,7 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -1712,7 +1863,7 @@
         <v>43</v>
       </c>
       <c r="G26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -1722,42 +1873,42 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/ETRobo/doc/ロボコンスケジュール.xlsx
+++ b/ETRobo/doc/ロボコンスケジュール.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="0" windowWidth="14550" windowHeight="8340"/>
+    <workbookView xWindow="10230" yWindow="0" windowWidth="14550" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="88">
   <si>
     <t>染宮</t>
     <rPh sb="0" eb="2">
@@ -820,6 +820,19 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>ユウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※空調申請は日曜日のみ</t>
+    <rPh sb="1" eb="3">
+      <t>クウチョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニチヨウビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1236,7 +1249,9 @@
   </sheetPr>
   <dimension ref="B2:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1362,6 +1377,9 @@
       <c r="G8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
@@ -1380,9 +1398,6 @@
       <c r="G9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I9" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
@@ -1400,7 +1415,7 @@
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -1417,6 +1432,9 @@
       </c>
       <c r="G11" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">

--- a/ETRobo/doc/ロボコンスケジュール.xlsx
+++ b/ETRobo/doc/ロボコンスケジュール.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="0" windowWidth="14550" windowHeight="8340"/>
+    <workbookView xWindow="12090" yWindow="0" windowWidth="14550" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>染宮</t>
     <rPh sb="0" eb="2">
@@ -833,6 +833,34 @@
     </rPh>
     <rPh sb="6" eb="9">
       <t>ニチヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芦田</t>
+    <rPh sb="0" eb="2">
+      <t>アシダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロボ代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参加費</t>
+    <rPh sb="0" eb="3">
+      <t>サンカヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -844,7 +872,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -866,8 +894,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -877,6 +912,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,12 +972,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -964,8 +1008,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1249,8 +1306,8 @@
   </sheetPr>
   <dimension ref="B2:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:I11"/>
+    <sheetView topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1395,7 +1452,7 @@
       <c r="F9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1411,7 +1468,7 @@
       <c r="F10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="12" t="s">
         <v>5</v>
       </c>
       <c r="I10" t="s">
@@ -1430,7 +1487,7 @@
       <c r="F11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="12" t="s">
         <v>2</v>
       </c>
       <c r="I11" t="s">
@@ -1449,7 +1506,7 @@
       <c r="F12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1465,7 +1522,7 @@
       <c r="F13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1551,53 +1608,170 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C10"/>
+  <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
+        <v>27980</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="10">
+        <v>3000</v>
+      </c>
+      <c r="G13" s="9">
+        <v>57780</v>
+      </c>
+      <c r="I13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="10">
+        <v>3000</v>
+      </c>
+      <c r="G14" s="9">
+        <v>43200</v>
+      </c>
+      <c r="I14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="10">
+        <v>3000</v>
+      </c>
+      <c r="G15" s="9">
+        <f>G14+G13</f>
+        <v>100980</v>
+      </c>
+      <c r="I15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="10">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="10">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="10">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="10">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="10">
+        <f>SUM(D12:D22)</f>
+        <v>100980</v>
       </c>
     </row>
   </sheetData>
@@ -1747,8 +1921,8 @@
   </sheetPr>
   <dimension ref="B2:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="A13" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>

--- a/ETRobo/doc/ロボコンスケジュール.xlsx
+++ b/ETRobo/doc/ロボコンスケジュール.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12090" yWindow="0" windowWidth="14550" windowHeight="8340" activeTab="1"/>
+    <workbookView xWindow="14880" yWindow="0" windowWidth="14550" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="93">
   <si>
     <t>染宮</t>
     <rPh sb="0" eb="2">
@@ -862,6 +862,10 @@
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1307,7 +1311,7 @@
   <dimension ref="B2:I19"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1460,7 +1464,9 @@
       <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3">
+        <v>42483</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1610,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1668,6 +1674,9 @@
       <c r="D12" s="10">
         <v>27980</v>
       </c>
+      <c r="E12" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -1676,6 +1685,9 @@
       <c r="D13" s="10">
         <v>3000</v>
       </c>
+      <c r="E13" t="s">
+        <v>92</v>
+      </c>
       <c r="G13" s="9">
         <v>57780</v>
       </c>
@@ -1704,6 +1716,9 @@
       <c r="D15" s="10">
         <v>3000</v>
       </c>
+      <c r="E15" t="s">
+        <v>92</v>
+      </c>
       <c r="G15" s="9">
         <f>G14+G13</f>
         <v>100980</v>
@@ -1719,24 +1734,33 @@
       <c r="D16" s="10">
         <v>4000</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="10">
         <v>3000</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="10">
         <v>10000</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
         <v>3</v>
       </c>
@@ -1744,23 +1768,29 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="10">
         <v>10000</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="10">
         <v>30000</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>88</v>
       </c>
@@ -1768,7 +1798,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D23" s="10">
         <f>SUM(D12:D22)</f>
         <v>100980</v>

--- a/ETRobo/doc/ロボコンスケジュール.xlsx
+++ b/ETRobo/doc/ロボコンスケジュール.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14880" yWindow="0" windowWidth="14550" windowHeight="8340" activeTab="1"/>
+    <workbookView xWindow="15810" yWindow="0" windowWidth="14550" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="1" r:id="rId1"/>
@@ -1310,8 +1310,8 @@
   </sheetPr>
   <dimension ref="B2:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1485,7 +1485,9 @@
       <c r="B11" s="1">
         <v>5</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3">
+        <v>42511</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
         <v>76</v>
@@ -1504,7 +1506,9 @@
       <c r="B12" s="1">
         <v>6</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3">
+        <v>42525</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1616,7 +1620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
